--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394730.2289205693</v>
+        <v>395444.2962519964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800190.5120470802</v>
+        <v>988005.7655927931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25206690.91176504</v>
+        <v>24903603.24714331</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3607945.085319977</v>
+        <v>3733698.864534221</v>
       </c>
     </row>
     <row r="11">
@@ -8696,10 +8698,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8769,22 +8771,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M12" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O12" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8933,10 +8935,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
@@ -9006,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O15" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9170,10 +9172,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9243,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N18" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9407,10 +9409,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N20" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9480,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N21" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9644,10 +9646,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9717,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9881,10 +9883,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9954,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10118,10 +10120,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10191,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10355,10 +10357,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10428,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10592,10 +10594,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10665,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10829,10 +10831,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10902,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11066,10 +11068,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11139,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11303,10 +11305,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11376,22 +11378,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
@@ -23270,22 +23272,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H11" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I11" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L11" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P11" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R11" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S11" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T11" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H12" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I12" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J12" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S12" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T12" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H13" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I13" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J13" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K13" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L13" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M13" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N13" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O13" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P13" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R13" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S13" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T13" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,22 +23509,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H14" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I14" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J14" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L14" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P14" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R14" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S14" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T14" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H15" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I15" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J15" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R15" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S15" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T15" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I16" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K16" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L16" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M16" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N16" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O16" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P16" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R16" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S16" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T16" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I17" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P17" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R17" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S17" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T17" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H18" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I18" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J18" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R18" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S18" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T18" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H19" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I19" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J19" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K19" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L19" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M19" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N19" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O19" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P19" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R19" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S19" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T19" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,22 +23983,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I20" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P20" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R20" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S20" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T20" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H21" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I21" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J21" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R21" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S21" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T21" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H22" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I22" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J22" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K22" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L22" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M22" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N22" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O22" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P22" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R22" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S22" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T22" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,22 +24220,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I23" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P23" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R23" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S23" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T23" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H24" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I24" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J24" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R24" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S24" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T24" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H25" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I25" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J25" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K25" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L25" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M25" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N25" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O25" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P25" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R25" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S25" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T25" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,22 +24457,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H26" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I26" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P26" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R26" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S26" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T26" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H27" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I27" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J27" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R27" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S27" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T27" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H28" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I28" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J28" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K28" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L28" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M28" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N28" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O28" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P28" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R28" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S28" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T28" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,22 +24694,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H29" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I29" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P29" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R29" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S29" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T29" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H30" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I30" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J30" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R30" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S30" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T30" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H31" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I31" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J31" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K31" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L31" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M31" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N31" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O31" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P31" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R31" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S31" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T31" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,22 +24931,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H32" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I32" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P32" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R32" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S32" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T32" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H33" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I33" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J33" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R33" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S33" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T33" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H34" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I34" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J34" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K34" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L34" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M34" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N34" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P34" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R34" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S34" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T34" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,22 +25168,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H35" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I35" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P35" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R35" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S35" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T35" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H36" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I36" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J36" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R36" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S36" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T36" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H37" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I37" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J37" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K37" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L37" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M37" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N37" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O37" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P37" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q37" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R37" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S37" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T37" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,22 +25405,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H38" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I38" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P38" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R38" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S38" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T38" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H39" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I39" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J39" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R39" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S39" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T39" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H40" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I40" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J40" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K40" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L40" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M40" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N40" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O40" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P40" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R40" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S40" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T40" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,22 +25642,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H41" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I41" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P41" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R41" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S41" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T41" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H42" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I42" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J42" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R42" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S42" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T42" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H43" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I43" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K43" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L43" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M43" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N43" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O43" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P43" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q43" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R43" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S43" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T43" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H44" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I44" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P44" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R44" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S44" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T44" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H45" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I45" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J45" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R45" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S45" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T45" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H46" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I46" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J46" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K46" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L46" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M46" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N46" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O46" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P46" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q46" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R46" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S46" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T46" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>312021.6837035803</v>
+        <v>326514.4081156796</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>63462.03736344008</v>
       </c>
       <c r="E2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="F2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965818</v>
       </c>
       <c r="G2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="H2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="I2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965818</v>
       </c>
       <c r="J2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="K2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.9140096582</v>
       </c>
       <c r="L2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.9140096582</v>
       </c>
       <c r="M2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="N2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965817</v>
       </c>
       <c r="O2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="P2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>21516.74497334658</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5288.503113620007</v>
+        <v>5288.503113620006</v>
       </c>
       <c r="C4" t="n">
-        <v>5288.503113620007</v>
+        <v>5288.503113620006</v>
       </c>
       <c r="D4" t="n">
-        <v>5288.503113620007</v>
+        <v>5288.503113620006</v>
       </c>
       <c r="E4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="F4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="G4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="H4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="I4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="J4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="K4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="L4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="M4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="N4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="O4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
       <c r="P4" t="n">
-        <v>5288.503113620007</v>
+        <v>5131.990402331912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>24545.93424982008</v>
       </c>
       <c r="E6" t="n">
-        <v>58173.53424982008</v>
+        <v>39260.33087585708</v>
       </c>
       <c r="F6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920369</v>
       </c>
       <c r="G6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920366</v>
       </c>
       <c r="H6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920366</v>
       </c>
       <c r="I6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920369</v>
       </c>
       <c r="J6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920366</v>
       </c>
       <c r="K6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920371</v>
       </c>
       <c r="L6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920371</v>
       </c>
       <c r="M6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920366</v>
       </c>
       <c r="N6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920368</v>
       </c>
       <c r="O6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920366</v>
       </c>
       <c r="P6" t="n">
-        <v>58173.53424982008</v>
+        <v>60777.07584920366</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>395444.2962519964</v>
+        <v>258436.162935282</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>988005.7655927931</v>
+        <v>1055584.762481135</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24903603.24714331</v>
+        <v>23430634.41657005</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3733698.864534221</v>
+        <v>4324982.29627963</v>
       </c>
     </row>
     <row r="11">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.66908663405095</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>55.54772053355853</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>52.66908663405096</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2168,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.156901063114681</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>57.26815714440139</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>57.26815714440139</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>57.26815714440143</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>57.26815714440143</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>57.2681571444014</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>57.26815714440139</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>57.26815714440139</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>57.26815714440143</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
     </row>
     <row r="34">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>57.26815714440139</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>57.26815714440139</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>57.2681571444014</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>57.26815714440143</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>57.2681571444014</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>57.2681571444014</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
     </row>
     <row r="43">
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>57.26815714440141</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>57.26815714440141</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>58.24630383481719</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>11.05152100535</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.4859480355759</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>135.9203750658018</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>198.3548020960277</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>121.9484026310889</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>124.8561136406925</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>61.15401484442081</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>61.15401484442081</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>51.6115981197987</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>51.6115981197987</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>64.95703014255827</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>127.3914571727842</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>189.82588420301</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>132.4494038172081</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>68.74730502093642</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>11.05152100535</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>73.4859480355759</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>135.9203750658018</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>198.3548020960277</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>249.3526002236323</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>185.6505014273606</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>180.3189184338181</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>116.6168196375464</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>116.6168196375464</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.91472084127468</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>52.91472084127468</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>67.47963325489062</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>129.9140602851165</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>192.3484873153424</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>252.2603112332359</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.5582124369642</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>5.045206224664719</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>12.76650490281475</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>258.9334024523836</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>69.56962777532874</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>133.9377880534366</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>198.3059483315445</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>259.2364647196839</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>12.76650490281475</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>258.9334024523836</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>52.82656337374507</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>181.5628839299609</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>245.9310442080688</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>259.2364647196839</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>259.2364647196839</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>12.76650490281475</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>258.9334024523836</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>52.82656337374507</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>52.82656337374507</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>181.5628839299609</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>245.9310442080688</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>259.2364647196839</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>12.76650490281475</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>258.9334024523836</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>52.82656337374507</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3370543048262</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>195.7052145829341</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>202.2267514828587</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>12.76650490281475</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>258.9334024523836</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>66.96889402671832</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>131.3370543048262</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>195.7052145829341</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>63.04809087540407</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>12.76650490281475</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>205.8709857371385</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>258.9334024523836</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>202.2267514828587</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>70.87656215910013</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>52.82656337374507</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>181.5628839299609</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>245.9310442080688</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>259.2364647196839</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>259.2364647196839</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>260.073374861042</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>5.20146749722084</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>12.76650490281476</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>258.9334024523835</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.2267514828587</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>52.82656337374507</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>117.194723651853</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>130.500144163468</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>194.8683044415759</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>259.2364647196838</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>136.5516568209794</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>12.76650490281476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>77.13466518092264</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>141.5028254590305</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>205.8709857371384</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>258.9334024523835</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>63.04809087540409</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>194.3982801991627</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7231855372834</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>70.87656215910012</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>69.56962777532871</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>133.9377880534366</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>198.3059483315445</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>260.0733748610419</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>5.201467497220839</v>
       </c>
     </row>
   </sheetData>
@@ -9172,10 +9172,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>262.1171336583936</v>
+        <v>255.0101610653704</v>
       </c>
       <c r="N17" t="n">
-        <v>260.6727596612894</v>
+        <v>252.4303299301526</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9245,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>156.5283879628043</v>
+        <v>110.1017125573465</v>
       </c>
       <c r="M18" t="n">
-        <v>158.8073274317979</v>
+        <v>118.1098214048615</v>
       </c>
       <c r="N18" t="n">
-        <v>145.2543769669952</v>
+        <v>152.7077908046296</v>
       </c>
       <c r="O18" t="n">
-        <v>160.2613470196622</v>
+        <v>172.4526169152377</v>
       </c>
       <c r="P18" t="n">
-        <v>152.4484465568465</v>
+        <v>174.6828084010545</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9409,10 +9409,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>262.1171336583936</v>
+        <v>255.0101610653704</v>
       </c>
       <c r="N20" t="n">
-        <v>260.6727596612894</v>
+        <v>252.4303299301526</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9482,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>158.8643559162101</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L21" t="n">
-        <v>156.5283879628043</v>
+        <v>173.1667903656555</v>
       </c>
       <c r="M21" t="n">
-        <v>158.8073274317979</v>
+        <v>167.6946648467467</v>
       </c>
       <c r="N21" t="n">
-        <v>145.2543769669952</v>
+        <v>152.7077908046296</v>
       </c>
       <c r="O21" t="n">
-        <v>160.2613470196622</v>
+        <v>169.9045329633869</v>
       </c>
       <c r="P21" t="n">
-        <v>152.4484465568465</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9646,10 +9646,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>262.1171336583936</v>
+        <v>254.7900422967901</v>
       </c>
       <c r="N23" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9719,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>158.8643559162101</v>
+        <v>123.2673161331164</v>
       </c>
       <c r="L24" t="n">
-        <v>156.5283879628043</v>
+        <v>108.6637750268764</v>
       </c>
       <c r="M24" t="n">
-        <v>158.8073274317979</v>
+        <v>167.9699254787712</v>
       </c>
       <c r="N24" t="n">
-        <v>145.2543769669952</v>
+        <v>152.9386396300874</v>
       </c>
       <c r="O24" t="n">
-        <v>160.2613470196622</v>
+        <v>172.8302076941131</v>
       </c>
       <c r="P24" t="n">
-        <v>152.4484465568465</v>
+        <v>171.8990885381269</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9883,10 +9883,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
-        <v>262.1171336583936</v>
+        <v>254.7900422967901</v>
       </c>
       <c r="N26" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9956,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>156.5283879628043</v>
+        <v>173.6821187421369</v>
       </c>
       <c r="M27" t="n">
-        <v>158.8073274317979</v>
+        <v>167.9699254787712</v>
       </c>
       <c r="N27" t="n">
-        <v>145.2543769669952</v>
+        <v>152.9386396300874</v>
       </c>
       <c r="O27" t="n">
-        <v>160.2613470196622</v>
+        <v>121.2516826774537</v>
       </c>
       <c r="P27" t="n">
-        <v>152.4484465568465</v>
+        <v>110.3531123884912</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10120,10 +10120,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
-        <v>262.1171336583936</v>
+        <v>254.7900422967901</v>
       </c>
       <c r="N29" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10193,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>156.5283879628043</v>
+        <v>108.6637750268764</v>
       </c>
       <c r="M30" t="n">
-        <v>158.8073274317979</v>
+        <v>167.9699254787712</v>
       </c>
       <c r="N30" t="n">
-        <v>145.2543769669952</v>
+        <v>152.9386396300874</v>
       </c>
       <c r="O30" t="n">
-        <v>160.2613470196622</v>
+        <v>172.8302076941131</v>
       </c>
       <c r="P30" t="n">
-        <v>152.4484465568465</v>
+        <v>123.7929310870923</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10357,10 +10357,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
-        <v>262.1171336583936</v>
+        <v>254.7900422967901</v>
       </c>
       <c r="N32" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10430,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>156.5283879628043</v>
+        <v>173.6821187421369</v>
       </c>
       <c r="M33" t="n">
-        <v>158.8073274317979</v>
+        <v>102.9515817635107</v>
       </c>
       <c r="N33" t="n">
-        <v>145.2543769669952</v>
+        <v>102.2054783925777</v>
       </c>
       <c r="O33" t="n">
-        <v>160.2613470196622</v>
+        <v>172.8302076941131</v>
       </c>
       <c r="P33" t="n">
-        <v>152.4484465568465</v>
+        <v>175.3714561037517</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>135.2847186736806</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10594,10 +10594,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>262.1171336583936</v>
+        <v>254.7900422967901</v>
       </c>
       <c r="N35" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10667,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>158.8643559162101</v>
+        <v>123.2673161331164</v>
       </c>
       <c r="L36" t="n">
-        <v>156.5283879628043</v>
+        <v>171.0551149556618</v>
       </c>
       <c r="M36" t="n">
-        <v>158.8073274317979</v>
+        <v>167.9699254787712</v>
       </c>
       <c r="N36" t="n">
-        <v>145.2543769669952</v>
+        <v>152.9386396300874</v>
       </c>
       <c r="O36" t="n">
-        <v>160.2613470196622</v>
+        <v>172.8302076941131</v>
       </c>
       <c r="P36" t="n">
-        <v>152.4484465568465</v>
+        <v>110.3531123884912</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>135.2847186736806</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10831,10 +10831,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>262.1171336583936</v>
+        <v>254.7900422967901</v>
       </c>
       <c r="N38" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10904,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>156.5283879628043</v>
+        <v>173.6821187421369</v>
       </c>
       <c r="M39" t="n">
-        <v>158.8073274317979</v>
+        <v>167.9699254787712</v>
       </c>
       <c r="N39" t="n">
-        <v>145.2543769669952</v>
+        <v>152.9386396300874</v>
       </c>
       <c r="O39" t="n">
-        <v>160.2613470196622</v>
+        <v>121.2516826774537</v>
       </c>
       <c r="P39" t="n">
-        <v>152.4484465568465</v>
+        <v>110.3531123884912</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11068,10 +11068,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>262.1171336583936</v>
+        <v>254.79004229679</v>
       </c>
       <c r="N41" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11141,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
-        <v>156.5283879628043</v>
+        <v>173.6821187421369</v>
       </c>
       <c r="M42" t="n">
-        <v>158.8073274317979</v>
+        <v>102.9515817635107</v>
       </c>
       <c r="N42" t="n">
-        <v>145.2543769669952</v>
+        <v>101.360114613428</v>
       </c>
       <c r="O42" t="n">
-        <v>160.2613470196622</v>
+        <v>172.8302076941131</v>
       </c>
       <c r="P42" t="n">
-        <v>152.4484465568465</v>
+        <v>175.3714561037517</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11305,10 +11305,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>262.1171336583936</v>
+        <v>254.79004229679</v>
       </c>
       <c r="N44" t="n">
-        <v>260.6727596612894</v>
+        <v>252.1750435253184</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11378,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>158.8643559162101</v>
+        <v>123.2673161331164</v>
       </c>
       <c r="L45" t="n">
-        <v>156.5283879628043</v>
+        <v>108.6637750268764</v>
       </c>
       <c r="M45" t="n">
-        <v>158.8073274317979</v>
+        <v>167.9699254787712</v>
       </c>
       <c r="N45" t="n">
-        <v>145.2543769669952</v>
+        <v>152.9386396300874</v>
       </c>
       <c r="O45" t="n">
-        <v>160.2613470196622</v>
+        <v>172.8302076941131</v>
       </c>
       <c r="P45" t="n">
-        <v>152.4484465568465</v>
+        <v>172.7444523172766</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>135.2847186736806</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>311.0221625695243</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>297.5364107471279</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
@@ -23746,19 +23746,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H17" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I17" t="n">
-        <v>252.5390011750733</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J17" t="n">
-        <v>102.1633490996273</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K17" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23770,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>58.0961346578143</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.0060719774896</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R17" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S17" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T17" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23797,10 +23797,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>296.7176364863972</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>319.2204896101409</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>113.6854165893567</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>124.4530737160569</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>116.2798513062411</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H18" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I18" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J18" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,22 +23855,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>144.6542915277517</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S18" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T18" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>177.5838431070933</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H19" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I19" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J19" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K19" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L19" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M19" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N19" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O19" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P19" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R19" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S19" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T19" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23977,25 +23977,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>318.8098254275852</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>340.1341718317045</v>
       </c>
       <c r="G20" t="n">
-        <v>419.1372257337943</v>
+        <v>355.6725149688242</v>
       </c>
       <c r="H20" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I20" t="n">
-        <v>252.5390011750733</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J20" t="n">
-        <v>102.1633490996273</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K20" t="n">
-        <v>44.7678260839346</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24007,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>58.0961346578143</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.0060719774896</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R20" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S20" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T20" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1744657143414</v>
+        <v>187.0774172694995</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24056,22 +24056,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>163.670670776685</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>95.75836131161935</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H21" t="n">
-        <v>127.2808586212757</v>
+        <v>62.15070578533683</v>
       </c>
       <c r="I21" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J21" t="n">
-        <v>67.59235497006948</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>144.6542915277517</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S21" t="n">
-        <v>194.5628574600357</v>
+        <v>127.5261208224749</v>
       </c>
       <c r="T21" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H22" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I22" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J22" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K22" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L22" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M22" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N22" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O22" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P22" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R22" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S22" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T22" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,19 +24220,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H23" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I23" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J23" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K23" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24244,34 +24244,34 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.0060719774896</v>
+        <v>12.49523161358232</v>
       </c>
       <c r="R23" t="n">
-        <v>213.6669190178523</v>
+        <v>187.7859657462794</v>
       </c>
       <c r="S23" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T23" t="n">
-        <v>223.7749849055099</v>
+        <v>221.9714090322874</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1415048759958</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>255.8614398938915</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>272.8781201105064</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>302.5145571503047</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6841667725599</v>
       </c>
       <c r="H24" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I24" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J24" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,31 +24329,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S24" t="n">
-        <v>194.5628574600357</v>
+        <v>190.4681875118758</v>
       </c>
       <c r="T24" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2385962954956</v>
+        <v>172.2057496170185</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>175.6305772001417</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>201.6862398617511</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>166.1161289896242</v>
       </c>
     </row>
     <row r="25">
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H25" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I25" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J25" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K25" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L25" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M25" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N25" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O25" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P25" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R25" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S25" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>309.0688966625728</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24457,19 +24457,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.1372257337943</v>
+        <v>353.706871539214</v>
       </c>
       <c r="H26" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I26" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J26" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K26" t="n">
-        <v>44.7678260839346</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24481,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.0060719774896</v>
+        <v>12.49523161358232</v>
       </c>
       <c r="R26" t="n">
-        <v>213.6669190178523</v>
+        <v>187.7859657462794</v>
       </c>
       <c r="S26" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T26" t="n">
-        <v>223.7749849055099</v>
+        <v>221.9714090322874</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1744657143414</v>
+        <v>192.8733477315944</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24524,28 +24524,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>122.4998078091054</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>106.8092281245392</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6841667725599</v>
       </c>
       <c r="H27" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I27" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J27" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S27" t="n">
-        <v>194.5628574600357</v>
+        <v>190.4681875118758</v>
       </c>
       <c r="T27" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2385962954956</v>
+        <v>172.2057496170185</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24587,7 +24587,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>160.0447572950692</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I28" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J28" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K28" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L28" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M28" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N28" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O28" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P28" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R28" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S28" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>285.1871536659183</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24694,19 +24694,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H29" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I29" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J29" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K29" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24718,31 +24718,31 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.0060719774896</v>
+        <v>77.51357532884282</v>
       </c>
       <c r="R29" t="n">
-        <v>213.6669190178523</v>
+        <v>187.7859657462794</v>
       </c>
       <c r="S29" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T29" t="n">
-        <v>223.7749849055099</v>
+        <v>156.9530653170269</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1744657143414</v>
+        <v>185.1231611607353</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>280.6283066813655</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6841667725599</v>
       </c>
       <c r="H30" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I30" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J30" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,28 +24803,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S30" t="n">
-        <v>194.5628574600357</v>
+        <v>125.4498437966153</v>
       </c>
       <c r="T30" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2385962954956</v>
+        <v>172.2057496170185</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>201.6862398617511</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>160.0447572950692</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H31" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I31" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J31" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K31" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L31" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M31" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N31" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O31" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P31" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R31" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S31" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,19 +24931,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H32" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I32" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J32" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K32" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24955,37 +24955,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.0060719774896</v>
+        <v>77.51357532884282</v>
       </c>
       <c r="R32" t="n">
-        <v>213.6669190178523</v>
+        <v>187.7859657462794</v>
       </c>
       <c r="S32" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T32" t="n">
-        <v>223.7749849055099</v>
+        <v>221.9714090322874</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1744657143414</v>
+        <v>185.1231611607353</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>255.8614398938915</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>272.8781201105064</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>325.0174102740485</v>
       </c>
     </row>
     <row r="33">
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9046118134526</v>
+        <v>83.66582305729943</v>
       </c>
       <c r="H33" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I33" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J33" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S33" t="n">
-        <v>194.5628574600357</v>
+        <v>133.2000303674744</v>
       </c>
       <c r="T33" t="n">
-        <v>215.61586546681</v>
+        <v>149.7089735384777</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224093332279</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25064,7 +25064,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>158.3659424187651</v>
       </c>
     </row>
     <row r="34">
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H34" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I34" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J34" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K34" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L34" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M34" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N34" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O34" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P34" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R34" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S34" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>316.8190832334319</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25168,19 +25168,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H35" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I35" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J35" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K35" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25192,34 +25192,34 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.0060719774896</v>
+        <v>77.51357532884282</v>
       </c>
       <c r="R35" t="n">
-        <v>213.6669190178523</v>
+        <v>187.7859657462794</v>
       </c>
       <c r="S35" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T35" t="n">
-        <v>223.7749849055099</v>
+        <v>221.9714090322874</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1415048759958</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>255.8614398938915</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>272.8781201105064</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>294.7643705794457</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9046118134526</v>
+        <v>91.41600962815855</v>
       </c>
       <c r="H36" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I36" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J36" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S36" t="n">
-        <v>194.5628574600357</v>
+        <v>190.4681875118758</v>
       </c>
       <c r="T36" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2385962954956</v>
+        <v>172.2057496170185</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>175.6305772001417</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>201.6862398617511</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I37" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J37" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K37" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L37" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M37" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N37" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O37" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P37" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R37" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S37" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25393,7 +25393,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>285.1871536659183</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25405,19 +25405,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H38" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I38" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J38" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K38" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25429,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0060719774896</v>
+        <v>12.49523161358232</v>
       </c>
       <c r="R38" t="n">
-        <v>213.6669190178523</v>
+        <v>122.7676220310189</v>
       </c>
       <c r="S38" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T38" t="n">
-        <v>223.7749849055099</v>
+        <v>221.9714090322874</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1415048759958</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>325.0174102740485</v>
       </c>
     </row>
     <row r="39">
@@ -25469,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>119.4823372532643</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>122.4998078091054</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>94.15397136131804</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>93.80509540466784</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6841667725599</v>
       </c>
       <c r="H39" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I39" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J39" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S39" t="n">
-        <v>194.5628574600357</v>
+        <v>190.4681875118758</v>
       </c>
       <c r="T39" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224093332279</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H40" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I40" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J40" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K40" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L40" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M40" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N40" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O40" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P40" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R40" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S40" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,19 +25642,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H41" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I41" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J41" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K41" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25666,37 +25666,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.0060719774896</v>
+        <v>20.24541818444142</v>
       </c>
       <c r="R41" t="n">
-        <v>213.6669190178523</v>
+        <v>122.7676220310189</v>
       </c>
       <c r="S41" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T41" t="n">
-        <v>223.7749849055099</v>
+        <v>221.9714090322874</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1415048759958</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>272.8781201105064</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>317.2672237031894</v>
       </c>
     </row>
     <row r="42">
@@ -25715,22 +25715,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>106.8092281245392</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6841667725599</v>
       </c>
       <c r="H42" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I42" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J42" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S42" t="n">
-        <v>194.5628574600357</v>
+        <v>190.4681875118758</v>
       </c>
       <c r="T42" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2385962954956</v>
+        <v>172.2057496170185</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>209.4364264326102</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>158.3659424187651</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I43" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J43" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K43" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L43" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M43" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N43" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O43" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P43" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R43" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S43" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25876,22 +25876,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>345.9310924956121</v>
       </c>
       <c r="G44" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7252152544745</v>
       </c>
       <c r="H44" t="n">
-        <v>350.0840728010472</v>
+        <v>345.8645704797132</v>
       </c>
       <c r="I44" t="n">
-        <v>252.5390011750733</v>
+        <v>236.6549671710964</v>
       </c>
       <c r="J44" t="n">
-        <v>102.1633490996273</v>
+        <v>67.19447468045777</v>
       </c>
       <c r="K44" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25903,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.0060719774896</v>
+        <v>77.51357532884282</v>
       </c>
       <c r="R44" t="n">
-        <v>213.6669190178523</v>
+        <v>122.7676220310189</v>
       </c>
       <c r="S44" t="n">
-        <v>234.3316595809324</v>
+        <v>224.9429707834323</v>
       </c>
       <c r="T44" t="n">
-        <v>223.7749849055099</v>
+        <v>156.9530653170269</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1744657143414</v>
+        <v>185.1231611607353</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>111.7321506824052</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>94.15397136131806</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>114.5594146953983</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>93.80509540466785</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6841667725599</v>
       </c>
       <c r="H45" t="n">
-        <v>127.2808586212757</v>
+        <v>125.1518236210755</v>
       </c>
       <c r="I45" t="n">
-        <v>112.8724349482959</v>
+        <v>105.2825508649299</v>
       </c>
       <c r="J45" t="n">
-        <v>67.59235497006948</v>
+        <v>46.7651329267845</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>144.6542915277517</v>
+        <v>130.9673617081174</v>
       </c>
       <c r="S45" t="n">
-        <v>194.5628574600357</v>
+        <v>190.4681875118758</v>
       </c>
       <c r="T45" t="n">
-        <v>215.61586546681</v>
+        <v>214.7273172537382</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224093332279</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6501059879736</v>
       </c>
       <c r="H46" t="n">
-        <v>167.0170666797881</v>
+        <v>165.3739047226943</v>
       </c>
       <c r="I46" t="n">
-        <v>168.8870673881104</v>
+        <v>163.32921487884</v>
       </c>
       <c r="J46" t="n">
-        <v>129.7236433787886</v>
+        <v>116.6573135829616</v>
       </c>
       <c r="K46" t="n">
-        <v>82.61516433249618</v>
+        <v>61.14317066004291</v>
       </c>
       <c r="L46" t="n">
-        <v>52.09548622449577</v>
+        <v>24.61872687243778</v>
       </c>
       <c r="M46" t="n">
-        <v>46.24466908004986</v>
+        <v>17.27427886924298</v>
       </c>
       <c r="N46" t="n">
-        <v>37.04796687835205</v>
+        <v>8.766427794752175</v>
       </c>
       <c r="O46" t="n">
-        <v>56.43963860165199</v>
+        <v>30.317059758201</v>
       </c>
       <c r="P46" t="n">
-        <v>74.70280003544025</v>
+        <v>52.35042101992238</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4497818638882</v>
+        <v>122.9741532475371</v>
       </c>
       <c r="R46" t="n">
-        <v>209.4615981681609</v>
+        <v>201.1517013994634</v>
       </c>
       <c r="S46" t="n">
-        <v>237.7758219951765</v>
+        <v>234.5550229443085</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5450638920132</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6537932082468</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>326514.4081156796</v>
+        <v>409861.7190639492</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>326514.4081156796</v>
+        <v>409861.7190639494</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490572</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490572</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490571</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490572</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490571</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490572</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>326514.4081156796</v>
+        <v>412383.3468490572</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>63462.03736344008</v>
       </c>
       <c r="E2" t="n">
+        <v>66492.91400965818</v>
+      </c>
+      <c r="F2" t="n">
         <v>66492.91400965815</v>
       </c>
-      <c r="F2" t="n">
-        <v>66492.91400965818</v>
-      </c>
       <c r="G2" t="n">
-        <v>66492.91400965815</v>
+        <v>83750.68430721122</v>
       </c>
       <c r="H2" t="n">
-        <v>66492.91400965815</v>
+        <v>83750.68430721124</v>
       </c>
       <c r="I2" t="n">
-        <v>66492.91400965818</v>
+        <v>84273.00389386751</v>
       </c>
       <c r="J2" t="n">
-        <v>66492.91400965815</v>
+        <v>84273.00389386753</v>
       </c>
       <c r="K2" t="n">
-        <v>66492.9140096582</v>
+        <v>84273.00389386751</v>
       </c>
       <c r="L2" t="n">
-        <v>66492.9140096582</v>
+        <v>84273.00389386751</v>
       </c>
       <c r="M2" t="n">
-        <v>66492.91400965815</v>
+        <v>84273.00389386753</v>
       </c>
       <c r="N2" t="n">
-        <v>66492.91400965817</v>
+        <v>84273.00389386753</v>
       </c>
       <c r="O2" t="n">
-        <v>66492.91400965815</v>
+        <v>84273.00389386753</v>
       </c>
       <c r="P2" t="n">
-        <v>66492.91400965815</v>
+        <v>84273.00389386754</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>94574.16220927832</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2837.059914427726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15176.67403964736</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5288.503113620006</v>
+        <v>5288.503113620007</v>
       </c>
       <c r="C4" t="n">
-        <v>5288.503113620006</v>
+        <v>5288.503113620007</v>
       </c>
       <c r="D4" t="n">
-        <v>5288.503113620006</v>
+        <v>5288.503113620007</v>
       </c>
       <c r="E4" t="n">
         <v>5131.990402331912</v>
@@ -26432,34 +26432,34 @@
         <v>5131.990402331912</v>
       </c>
       <c r="G4" t="n">
-        <v>5131.990402331912</v>
+        <v>5112.09156245082</v>
       </c>
       <c r="H4" t="n">
-        <v>5131.990402331912</v>
+        <v>5112.091562450821</v>
       </c>
       <c r="I4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603966</v>
       </c>
       <c r="J4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603967</v>
       </c>
       <c r="K4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603967</v>
       </c>
       <c r="L4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603966</v>
       </c>
       <c r="M4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603967</v>
       </c>
       <c r="N4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603966</v>
       </c>
       <c r="O4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603966</v>
       </c>
       <c r="P4" t="n">
-        <v>5131.990402331912</v>
+        <v>5110.940714603967</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>583.8477581225804</v>
       </c>
       <c r="G5" t="n">
-        <v>583.8477581225804</v>
+        <v>6585.314104602174</v>
       </c>
       <c r="H5" t="n">
-        <v>583.8477581225804</v>
+        <v>6585.314104602174</v>
       </c>
       <c r="I5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="J5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="K5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="L5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="M5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="N5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="O5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
       <c r="P5" t="n">
-        <v>583.8477581225804</v>
+        <v>6771.192882741903</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24545.93424982008</v>
+        <v>7741.473641976689</v>
       </c>
       <c r="C6" t="n">
-        <v>24545.93424982008</v>
+        <v>7741.473641976689</v>
       </c>
       <c r="D6" t="n">
-        <v>24545.93424982008</v>
+        <v>7741.473641976689</v>
       </c>
       <c r="E6" t="n">
-        <v>39260.33087585708</v>
+        <v>22708.44332186523</v>
       </c>
       <c r="F6" t="n">
-        <v>60777.07584920369</v>
+        <v>44225.18829521178</v>
       </c>
       <c r="G6" t="n">
-        <v>60777.07584920366</v>
+        <v>-37634.62359831588</v>
       </c>
       <c r="H6" t="n">
-        <v>60777.07584920366</v>
+        <v>56939.53861096245</v>
       </c>
       <c r="I6" t="n">
-        <v>60777.07584920369</v>
+        <v>54483.5969851195</v>
       </c>
       <c r="J6" t="n">
-        <v>60777.07584920366</v>
+        <v>57320.65689954722</v>
       </c>
       <c r="K6" t="n">
-        <v>60777.07584920371</v>
+        <v>57320.65689954722</v>
       </c>
       <c r="L6" t="n">
-        <v>60777.07584920371</v>
+        <v>57320.65689954722</v>
       </c>
       <c r="M6" t="n">
-        <v>60777.07584920366</v>
+        <v>57320.65689954722</v>
       </c>
       <c r="N6" t="n">
-        <v>60777.07584920368</v>
+        <v>57320.65689954723</v>
       </c>
       <c r="O6" t="n">
-        <v>60777.07584920366</v>
+        <v>42143.98285989986</v>
       </c>
       <c r="P6" t="n">
-        <v>60777.07584920366</v>
+        <v>57320.65689954725</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>26.78200725332938</v>
       </c>
       <c r="G3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="H3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="I3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="J3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="K3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="L3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="M3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="N3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="O3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
       <c r="P3" t="n">
-        <v>26.78200725332938</v>
+        <v>129.2696139841314</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99.40869796946824</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.078908761333821</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.953265906951515</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>63.06507780830897</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H17" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I17" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J17" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K17" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M17" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N17" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O17" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P17" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R17" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S17" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H18" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I18" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J18" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K18" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L18" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M18" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N18" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O18" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P18" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R18" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S18" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I19" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J19" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K19" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L19" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M19" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N19" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O19" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P19" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R19" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S19" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H20" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I20" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J20" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K20" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M20" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N20" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O20" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P20" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R20" t="n">
-        <v>6.76319703769629</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S20" t="n">
-        <v>2.453447197126607</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05760658163923679</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H21" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I21" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J21" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K21" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L21" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M21" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N21" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O21" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P21" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.353429614159418</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R21" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S21" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I22" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J22" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K22" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L22" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M22" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N22" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O22" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P22" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R22" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8416575066333181</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H23" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I23" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J23" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K23" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M23" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N23" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O23" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P23" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R23" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S23" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H24" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I24" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J24" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K24" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L24" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M24" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N24" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O24" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P24" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R24" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S24" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I25" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J25" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K25" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L25" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M25" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N25" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O25" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P25" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R25" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S25" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H26" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I26" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J26" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K26" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M26" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N26" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O26" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P26" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R26" t="n">
-        <v>6.76319703769629</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S26" t="n">
-        <v>2.453447197126607</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U26" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05760658163923679</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H27" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I27" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J27" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K27" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L27" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M27" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N27" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O27" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P27" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.353429614159418</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R27" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S27" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I28" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J28" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K28" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L28" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M28" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N28" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O28" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P28" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R28" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8416575066333181</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H29" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I29" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J29" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K29" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M29" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N29" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O29" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P29" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R29" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S29" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U29" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H30" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I30" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J30" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K30" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L30" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M30" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N30" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O30" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P30" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R30" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S30" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I31" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J31" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K31" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L31" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M31" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N31" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O31" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P31" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R31" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S31" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I32" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J32" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K32" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M32" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N32" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O32" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P32" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R32" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S32" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U32" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H33" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I33" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J33" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K33" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L33" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M33" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N33" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O33" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P33" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R33" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S33" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I34" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J34" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K34" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L34" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M34" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N34" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O34" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P34" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R34" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S34" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H35" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I35" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J35" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K35" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M35" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N35" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O35" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P35" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R35" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S35" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U35" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H36" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I36" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J36" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K36" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L36" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M36" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N36" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O36" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P36" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R36" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S36" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I37" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J37" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K37" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L37" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M37" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N37" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O37" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P37" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R37" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S37" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H38" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I38" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J38" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K38" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M38" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N38" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O38" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P38" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q38" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R38" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S38" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U38" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H39" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I39" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J39" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K39" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L39" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M39" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N39" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O39" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P39" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R39" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S39" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I40" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J40" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K40" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L40" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M40" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N40" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O40" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P40" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R40" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S40" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H41" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I41" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J41" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K41" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M41" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N41" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O41" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P41" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R41" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S41" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U41" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H42" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I42" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J42" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K42" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L42" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M42" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N42" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O42" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P42" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R42" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S42" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I43" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J43" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K43" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L43" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M43" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N43" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O43" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P43" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R43" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S43" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5196768401372114</v>
       </c>
       <c r="H44" t="n">
-        <v>1.102638117721244</v>
+        <v>5.322140439055218</v>
       </c>
       <c r="I44" t="n">
-        <v>4.150807375412989</v>
+        <v>20.03484137938986</v>
       </c>
       <c r="J44" t="n">
-        <v>9.138047791426191</v>
+        <v>44.10692221059569</v>
       </c>
       <c r="K44" t="n">
-        <v>13.69556484482692</v>
+        <v>66.10484285360386</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>82.00890294995307</v>
       </c>
       <c r="M44" t="n">
-        <v>18.90527087887908</v>
+        <v>91.25070595574319</v>
       </c>
       <c r="N44" t="n">
-        <v>19.21117792655154</v>
+        <v>92.72723777778305</v>
       </c>
       <c r="O44" t="n">
-        <v>18.14057055117347</v>
+        <v>87.55970119866865</v>
       </c>
       <c r="P44" t="n">
-        <v>15.48255726849379</v>
+        <v>74.73017920778123</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.62675572172049</v>
+        <v>56.11925237036733</v>
       </c>
       <c r="R44" t="n">
-        <v>6.763197037696289</v>
+        <v>32.64415030926914</v>
       </c>
       <c r="S44" t="n">
-        <v>2.453447197126606</v>
+        <v>11.84213599462672</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.274885367700644</v>
       </c>
       <c r="U44" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04157414721097691</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2780516225319054</v>
       </c>
       <c r="H45" t="n">
-        <v>0.55635830162105</v>
+        <v>2.685393301821297</v>
       </c>
       <c r="I45" t="n">
-        <v>1.983384499421091</v>
+        <v>9.573268582787094</v>
       </c>
       <c r="J45" t="n">
-        <v>5.442558662678946</v>
+        <v>26.26978070596392</v>
       </c>
       <c r="K45" t="n">
-        <v>9.30219963250781</v>
+        <v>44.89923941560158</v>
       </c>
       <c r="L45" t="n">
-        <v>12.50795536864218</v>
+        <v>60.37256830457007</v>
       </c>
       <c r="M45" t="n">
-        <v>14.59619395306451</v>
+        <v>70.45193962135163</v>
       </c>
       <c r="N45" t="n">
-        <v>14.9825117746715</v>
+        <v>72.31659282683972</v>
       </c>
       <c r="O45" t="n">
-        <v>13.70607120255999</v>
+        <v>66.15555424336961</v>
       </c>
       <c r="P45" t="n">
-        <v>11.00033048863637</v>
+        <v>53.09566465699165</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.353429614159419</v>
+        <v>35.49304571126568</v>
       </c>
       <c r="R45" t="n">
-        <v>3.576661270548404</v>
+        <v>17.26359109018269</v>
       </c>
       <c r="S45" t="n">
-        <v>1.070016987904244</v>
+        <v>5.164686936064116</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.120743162749215</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01829286990341484</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2331091399713845</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.072552171745584</v>
       </c>
       <c r="I46" t="n">
-        <v>1.452375081869075</v>
+        <v>7.010227591139457</v>
       </c>
       <c r="J46" t="n">
-        <v>3.414486400149878</v>
+        <v>16.48081619597689</v>
       </c>
       <c r="K46" t="n">
-        <v>5.611050044222121</v>
+        <v>27.0830437166754</v>
       </c>
       <c r="L46" t="n">
-        <v>7.180212239687683</v>
+        <v>34.65697159174567</v>
       </c>
       <c r="M46" t="n">
-        <v>7.570527066707514</v>
+        <v>36.54091727751439</v>
       </c>
       <c r="N46" t="n">
-        <v>7.390516854021208</v>
+        <v>35.67205593762108</v>
       </c>
       <c r="O46" t="n">
-        <v>6.826338504504349</v>
+        <v>32.94891734795534</v>
       </c>
       <c r="P46" t="n">
-        <v>5.841111877021211</v>
+        <v>28.19349089253908</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.044083095252736</v>
+        <v>19.51971171160385</v>
       </c>
       <c r="R46" t="n">
-        <v>2.171537834015854</v>
+        <v>10.48143460271334</v>
       </c>
       <c r="S46" t="n">
-        <v>0.841657506633318</v>
+        <v>4.062456557501309</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9960117798777337</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01271504399843917</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>13.48023436642381</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>63.06507780830898</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>60.51699385645812</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>61.54597614963568</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.845363779149622</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>48.10615745103458</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>13.43981869860111</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.845363779149622</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>48.10615745103458</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>13.43981869860111</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.845363779149622</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>48.10615745103458</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>14.28518247775075</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>62.39133992878533</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>48.10615745103458</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>13.43981869860111</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.845363779149622</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>48.10615745103458</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>13.43981869860107</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.845363779149622</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.641451924842329</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>65.0183437152605</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>53.59840072246982</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.151487281473138</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.01834371526049</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>62.39133992878532</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
